--- a/xlsx/builtin/趣味冷知识.xlsx
+++ b/xlsx/builtin/趣味冷知识.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr date1904="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PuzzleSister\xlsx\builtin\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28035" windowHeight="16440"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28035" windowHeight="16440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DLC" sheetId="1" r:id="rId1"/>
@@ -1649,14 +1644,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>异形生物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外形生命</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>不明飞行物</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2438,9 +2425,6 @@
     <t>豆浆中加入什么可做成豆腐?</t>
   </si>
   <si>
-    <t> UFO的含义是？</t>
-  </si>
-  <si>
     <t>马是怎样睡觉的?</t>
   </si>
   <si>
@@ -2498,9 +2482,6 @@
     <t>《麦克白》</t>
   </si>
   <si>
-    <t>另一部是《奥赛罗》</t>
-  </si>
-  <si>
     <t>我国居民膳食指南建议成人每天应该至少喝多少水?</t>
   </si>
   <si>
@@ -2579,10 +2560,6 @@
   </si>
   <si>
     <t>1987年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以下不是莎士比亚四大爱情剧的是?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2630,6 +2607,26 @@
     <rPh sb="2" eb="3">
       <t>wmhwipkr</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不属于莎士比亚四大悲剧的是？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>另一部是《奥赛罗》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外星生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发光体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UFO的意思是？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4243,11 +4240,11 @@
   </sheetPr>
   <dimension ref="A1:IY23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="18" customHeight="1"/>
@@ -4279,10 +4276,10 @@
         <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="G1" s="31" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -4306,10 +4303,10 @@
         <v>21</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="G2" s="32" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
@@ -4317,25 +4314,25 @@
     </row>
     <row r="3" spans="1:259" ht="165" customHeight="1">
       <c r="A3" s="12" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="C3" s="14">
         <v>0</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="G3" s="32" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="H3" s="16" t="s">
         <v>22</v>
@@ -4565,8 +4562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="29.25" customHeight="1"/>
@@ -4682,7 +4679,7 @@
         <v>153</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="29.25" customHeight="1">
@@ -4708,7 +4705,7 @@
         <v>132</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="29.25" customHeight="1">
@@ -4898,7 +4895,7 @@
         <v>32</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>185</v>
@@ -5028,7 +5025,7 @@
         <v>37</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C18" s="23" t="s">
         <v>214</v>
@@ -5043,7 +5040,7 @@
         <v>217</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="H18" s="23" t="s">
         <v>218</v>
@@ -5080,7 +5077,7 @@
         <v>39</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="C20" s="24" t="s">
         <v>254</v>
@@ -5095,7 +5092,7 @@
         <v>257</v>
       </c>
       <c r="G20" s="23" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="H20" s="23" t="s">
         <v>301</v>
@@ -5600,7 +5597,7 @@
         <v>59</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C40" s="23" t="s">
         <v>353</v>
@@ -5678,7 +5675,7 @@
         <v>62</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C43" s="23" t="s">
         <v>368</v>
@@ -5704,7 +5701,7 @@
         <v>63</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C44" s="23" t="s">
         <v>373</v>
@@ -5782,19 +5779,19 @@
         <v>66</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>597</v>
+        <v>650</v>
       </c>
       <c r="C47" s="23" t="s">
         <v>388</v>
       </c>
       <c r="D47" s="23" t="s">
+        <v>649</v>
+      </c>
+      <c r="E47" s="23" t="s">
+        <v>648</v>
+      </c>
+      <c r="F47" s="23" t="s">
         <v>389</v>
-      </c>
-      <c r="E47" s="23" t="s">
-        <v>390</v>
-      </c>
-      <c r="F47" s="23" t="s">
-        <v>391</v>
       </c>
       <c r="G47" s="23" t="s">
         <v>367</v>
@@ -5808,22 +5805,22 @@
         <v>67</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C48" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="D48" s="23" t="s">
+        <v>391</v>
+      </c>
+      <c r="E48" s="23" t="s">
         <v>392</v>
       </c>
-      <c r="D48" s="23" t="s">
+      <c r="F48" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="E48" s="23" t="s">
+      <c r="G48" s="23" t="s">
         <v>394</v>
-      </c>
-      <c r="F48" s="23" t="s">
-        <v>395</v>
-      </c>
-      <c r="G48" s="23" t="s">
-        <v>396</v>
       </c>
       <c r="H48" s="23" t="s">
         <v>361</v>
@@ -5834,22 +5831,22 @@
         <v>68</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C49" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="D49" s="23" t="s">
+        <v>396</v>
+      </c>
+      <c r="E49" s="23" t="s">
         <v>397</v>
       </c>
-      <c r="D49" s="23" t="s">
+      <c r="F49" s="23" t="s">
+        <v>597</v>
+      </c>
+      <c r="G49" s="23" t="s">
         <v>398</v>
-      </c>
-      <c r="E49" s="23" t="s">
-        <v>399</v>
-      </c>
-      <c r="F49" s="23" t="s">
-        <v>600</v>
-      </c>
-      <c r="G49" s="23" t="s">
-        <v>400</v>
       </c>
       <c r="H49" s="23" t="s">
         <v>361</v>
@@ -5860,7 +5857,7 @@
         <v>69</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C50" s="23">
         <v>5</v>
@@ -5875,7 +5872,7 @@
         <v>8</v>
       </c>
       <c r="G50" s="23" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H50" s="23" t="s">
         <v>361</v>
@@ -5886,19 +5883,19 @@
         <v>70</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D51" s="23" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F51" s="23" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="G51" s="23" t="s">
         <v>377</v>
@@ -5912,19 +5909,19 @@
         <v>71</v>
       </c>
       <c r="B52" s="23" t="s">
+        <v>403</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="D52" s="23" t="s">
         <v>405</v>
       </c>
-      <c r="C52" s="23" t="s">
+      <c r="E52" s="23" t="s">
         <v>406</v>
       </c>
-      <c r="D52" s="23" t="s">
+      <c r="F52" s="23" t="s">
         <v>407</v>
-      </c>
-      <c r="E52" s="23" t="s">
-        <v>408</v>
-      </c>
-      <c r="F52" s="23" t="s">
-        <v>409</v>
       </c>
       <c r="G52" s="23" t="s">
         <v>377</v>
@@ -5938,22 +5935,22 @@
         <v>72</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C53" s="23" t="s">
+        <v>408</v>
+      </c>
+      <c r="D53" s="23" t="s">
+        <v>409</v>
+      </c>
+      <c r="E53" s="23" t="s">
         <v>410</v>
       </c>
-      <c r="D53" s="23" t="s">
+      <c r="F53" s="23" t="s">
         <v>411</v>
       </c>
-      <c r="E53" s="23" t="s">
+      <c r="G53" s="23" t="s">
         <v>412</v>
-      </c>
-      <c r="F53" s="23" t="s">
-        <v>413</v>
-      </c>
-      <c r="G53" s="23" t="s">
-        <v>414</v>
       </c>
       <c r="H53" s="23" t="s">
         <v>361</v>
@@ -5964,7 +5961,7 @@
         <v>73</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C54" s="23">
         <v>187</v>
@@ -5979,7 +5976,7 @@
         <v>216</v>
       </c>
       <c r="G54" s="23" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H54" s="23" t="s">
         <v>361</v>
@@ -5990,22 +5987,22 @@
         <v>74</v>
       </c>
       <c r="B55" s="23" t="s">
+        <v>413</v>
+      </c>
+      <c r="C55" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="D55" s="23" t="s">
         <v>415</v>
       </c>
-      <c r="C55" s="23" t="s">
+      <c r="E55" s="23" t="s">
         <v>416</v>
       </c>
-      <c r="D55" s="23" t="s">
+      <c r="F55" s="23" t="s">
         <v>417</v>
       </c>
-      <c r="E55" s="23" t="s">
-        <v>418</v>
-      </c>
-      <c r="F55" s="23" t="s">
-        <v>419</v>
-      </c>
       <c r="G55" s="23" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="H55" s="23" t="s">
         <v>361</v>
@@ -6016,22 +6013,22 @@
         <v>75</v>
       </c>
       <c r="B56" s="23" t="s">
+        <v>418</v>
+      </c>
+      <c r="C56" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="D56" s="23" t="s">
         <v>420</v>
       </c>
-      <c r="C56" s="23" t="s">
+      <c r="E56" s="23" t="s">
         <v>421</v>
       </c>
-      <c r="D56" s="23" t="s">
+      <c r="F56" s="23" t="s">
         <v>422</v>
       </c>
-      <c r="E56" s="23" t="s">
-        <v>423</v>
-      </c>
-      <c r="F56" s="23" t="s">
-        <v>424</v>
-      </c>
       <c r="G56" s="23" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H56" s="23" t="s">
         <v>361</v>
@@ -6042,7 +6039,7 @@
         <v>76</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C57" s="23">
         <v>6</v>
@@ -6057,7 +6054,7 @@
         <v>12</v>
       </c>
       <c r="G57" s="23" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H57" s="23" t="s">
         <v>361</v>
@@ -6068,19 +6065,19 @@
         <v>77</v>
       </c>
       <c r="B58" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="C58" s="23" t="s">
+        <v>416</v>
+      </c>
+      <c r="D58" s="23" t="s">
         <v>426</v>
       </c>
-      <c r="C58" s="23" t="s">
-        <v>418</v>
-      </c>
-      <c r="D58" s="23" t="s">
+      <c r="E58" s="23" t="s">
+        <v>427</v>
+      </c>
+      <c r="F58" s="23" t="s">
         <v>428</v>
-      </c>
-      <c r="E58" s="23" t="s">
-        <v>429</v>
-      </c>
-      <c r="F58" s="23" t="s">
-        <v>430</v>
       </c>
       <c r="G58" s="23" t="s">
         <v>377</v>
@@ -6094,19 +6091,19 @@
         <v>78</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C59" s="23" t="s">
+        <v>429</v>
+      </c>
+      <c r="D59" s="23" t="s">
+        <v>430</v>
+      </c>
+      <c r="E59" s="23" t="s">
         <v>431</v>
       </c>
-      <c r="D59" s="23" t="s">
+      <c r="F59" s="23" t="s">
         <v>432</v>
-      </c>
-      <c r="E59" s="23" t="s">
-        <v>433</v>
-      </c>
-      <c r="F59" s="23" t="s">
-        <v>434</v>
       </c>
       <c r="G59" s="23" t="s">
         <v>377</v>
@@ -6120,19 +6117,19 @@
         <v>79</v>
       </c>
       <c r="B60" s="23" t="s">
+        <v>433</v>
+      </c>
+      <c r="C60" s="23" t="s">
+        <v>434</v>
+      </c>
+      <c r="D60" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="C60" s="23" t="s">
+      <c r="E60" s="23" t="s">
         <v>436</v>
       </c>
-      <c r="D60" s="23" t="s">
+      <c r="F60" s="23" t="s">
         <v>437</v>
-      </c>
-      <c r="E60" s="23" t="s">
-        <v>438</v>
-      </c>
-      <c r="F60" s="23" t="s">
-        <v>439</v>
       </c>
       <c r="G60" s="23" t="s">
         <v>367</v>
@@ -6146,22 +6143,22 @@
         <v>80</v>
       </c>
       <c r="B61" s="23" t="s">
+        <v>438</v>
+      </c>
+      <c r="C61" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="D61" s="23" t="s">
         <v>440</v>
       </c>
-      <c r="C61" s="23" t="s">
+      <c r="E61" s="23" t="s">
         <v>441</v>
       </c>
-      <c r="D61" s="23" t="s">
+      <c r="F61" s="23" t="s">
         <v>442</v>
       </c>
-      <c r="E61" s="23" t="s">
-        <v>443</v>
-      </c>
-      <c r="F61" s="23" t="s">
-        <v>444</v>
-      </c>
       <c r="G61" s="23" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H61" s="23" t="s">
         <v>361</v>
@@ -6172,22 +6169,22 @@
         <v>81</v>
       </c>
       <c r="B62" s="23" t="s">
+        <v>443</v>
+      </c>
+      <c r="C62" s="23" t="s">
+        <v>444</v>
+      </c>
+      <c r="D62" s="23" t="s">
+        <v>447</v>
+      </c>
+      <c r="E62" s="23" t="s">
         <v>445</v>
       </c>
-      <c r="C62" s="23" t="s">
+      <c r="F62" s="23" t="s">
         <v>446</v>
       </c>
-      <c r="D62" s="23" t="s">
-        <v>449</v>
-      </c>
-      <c r="E62" s="23" t="s">
-        <v>447</v>
-      </c>
-      <c r="F62" s="23" t="s">
-        <v>448</v>
-      </c>
       <c r="G62" s="23" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="H62" s="23" t="s">
         <v>361</v>
@@ -6198,19 +6195,19 @@
         <v>82</v>
       </c>
       <c r="B63" s="23" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C63" s="23" t="s">
+        <v>448</v>
+      </c>
+      <c r="D63" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="E63" s="23" t="s">
         <v>450</v>
       </c>
-      <c r="D63" s="23" t="s">
+      <c r="F63" s="23" t="s">
         <v>451</v>
-      </c>
-      <c r="E63" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="F63" s="23" t="s">
-        <v>453</v>
       </c>
       <c r="G63" s="23" t="s">
         <v>367</v>
@@ -6224,7 +6221,7 @@
         <v>83</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C64" s="23">
         <v>1952</v>
@@ -6239,7 +6236,7 @@
         <v>1984</v>
       </c>
       <c r="G64" s="23" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H64" s="23" t="s">
         <v>361</v>
@@ -6250,22 +6247,22 @@
         <v>84</v>
       </c>
       <c r="B65" s="23" t="s">
+        <v>454</v>
+      </c>
+      <c r="C65" s="23" t="s">
+        <v>455</v>
+      </c>
+      <c r="D65" s="23" t="s">
         <v>456</v>
       </c>
-      <c r="C65" s="23" t="s">
+      <c r="E65" s="23" t="s">
         <v>457</v>
       </c>
-      <c r="D65" s="23" t="s">
+      <c r="F65" s="23" t="s">
         <v>458</v>
       </c>
-      <c r="E65" s="23" t="s">
-        <v>459</v>
-      </c>
-      <c r="F65" s="23" t="s">
-        <v>460</v>
-      </c>
       <c r="G65" s="23" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H65" s="23" t="s">
         <v>361</v>
@@ -6276,19 +6273,19 @@
         <v>85</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C66" s="23" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D66" s="23" t="s">
+        <v>459</v>
+      </c>
+      <c r="E66" s="23" t="s">
+        <v>460</v>
+      </c>
+      <c r="F66" s="23" t="s">
         <v>461</v>
-      </c>
-      <c r="E66" s="23" t="s">
-        <v>462</v>
-      </c>
-      <c r="F66" s="23" t="s">
-        <v>463</v>
       </c>
       <c r="G66" s="23" t="s">
         <v>367</v>
@@ -6302,22 +6299,22 @@
         <v>86</v>
       </c>
       <c r="B67" s="23" t="s">
+        <v>462</v>
+      </c>
+      <c r="C67" s="23" t="s">
+        <v>463</v>
+      </c>
+      <c r="D67" s="23" t="s">
         <v>464</v>
       </c>
-      <c r="C67" s="23" t="s">
+      <c r="E67" s="23" t="s">
         <v>465</v>
       </c>
-      <c r="D67" s="23" t="s">
+      <c r="F67" s="23" t="s">
         <v>466</v>
       </c>
-      <c r="E67" s="23" t="s">
-        <v>467</v>
-      </c>
-      <c r="F67" s="23" t="s">
-        <v>468</v>
-      </c>
       <c r="G67" s="23" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H67" s="23" t="s">
         <v>361</v>
@@ -6328,19 +6325,19 @@
         <v>87</v>
       </c>
       <c r="B68" s="23" t="s">
+        <v>607</v>
+      </c>
+      <c r="C68" s="23" t="s">
+        <v>608</v>
+      </c>
+      <c r="D68" s="23" t="s">
+        <v>609</v>
+      </c>
+      <c r="E68" s="23" t="s">
         <v>610</v>
       </c>
-      <c r="C68" s="23" t="s">
+      <c r="F68" s="23" t="s">
         <v>611</v>
-      </c>
-      <c r="D68" s="23" t="s">
-        <v>612</v>
-      </c>
-      <c r="E68" s="23" t="s">
-        <v>613</v>
-      </c>
-      <c r="F68" s="23" t="s">
-        <v>614</v>
       </c>
       <c r="G68" s="23" t="s">
         <v>377</v>
@@ -6354,22 +6351,22 @@
         <v>88</v>
       </c>
       <c r="B69" s="23" t="s">
+        <v>467</v>
+      </c>
+      <c r="C69" s="23" t="s">
+        <v>468</v>
+      </c>
+      <c r="D69" s="23" t="s">
         <v>469</v>
       </c>
-      <c r="C69" s="23" t="s">
+      <c r="E69" s="23" t="s">
         <v>470</v>
       </c>
-      <c r="D69" s="23" t="s">
+      <c r="F69" s="23" t="s">
         <v>471</v>
       </c>
-      <c r="E69" s="23" t="s">
+      <c r="G69" s="23" t="s">
         <v>472</v>
-      </c>
-      <c r="F69" s="23" t="s">
-        <v>473</v>
-      </c>
-      <c r="G69" s="23" t="s">
-        <v>474</v>
       </c>
       <c r="H69" s="23" t="s">
         <v>361</v>
@@ -6380,22 +6377,22 @@
         <v>89</v>
       </c>
       <c r="B70" s="23" t="s">
+        <v>473</v>
+      </c>
+      <c r="C70" s="23" t="s">
+        <v>476</v>
+      </c>
+      <c r="D70" s="23" t="s">
+        <v>477</v>
+      </c>
+      <c r="E70" s="23" t="s">
+        <v>474</v>
+      </c>
+      <c r="F70" s="23" t="s">
         <v>475</v>
       </c>
-      <c r="C70" s="23" t="s">
-        <v>478</v>
-      </c>
-      <c r="D70" s="23" t="s">
-        <v>479</v>
-      </c>
-      <c r="E70" s="23" t="s">
-        <v>476</v>
-      </c>
-      <c r="F70" s="23" t="s">
-        <v>477</v>
-      </c>
       <c r="G70" s="23" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H70" s="23" t="s">
         <v>361</v>
@@ -6406,22 +6403,22 @@
         <v>90</v>
       </c>
       <c r="B71" s="23" t="s">
+        <v>478</v>
+      </c>
+      <c r="C71" s="23" t="s">
+        <v>479</v>
+      </c>
+      <c r="D71" s="23" t="s">
+        <v>634</v>
+      </c>
+      <c r="E71" s="23" t="s">
+        <v>635</v>
+      </c>
+      <c r="F71" s="23" t="s">
         <v>480</v>
       </c>
-      <c r="C71" s="23" t="s">
-        <v>481</v>
-      </c>
-      <c r="D71" s="23" t="s">
-        <v>638</v>
-      </c>
-      <c r="E71" s="23" t="s">
-        <v>639</v>
-      </c>
-      <c r="F71" s="23" t="s">
-        <v>482</v>
-      </c>
       <c r="G71" s="23" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H71" s="23" t="s">
         <v>361</v>
@@ -6432,22 +6429,22 @@
         <v>91</v>
       </c>
       <c r="B72" s="23" t="s">
+        <v>481</v>
+      </c>
+      <c r="C72" s="23" t="s">
+        <v>612</v>
+      </c>
+      <c r="D72" s="23" t="s">
+        <v>482</v>
+      </c>
+      <c r="E72" s="23" t="s">
         <v>483</v>
       </c>
-      <c r="C72" s="23" t="s">
-        <v>615</v>
-      </c>
-      <c r="D72" s="23" t="s">
+      <c r="F72" s="23" t="s">
         <v>484</v>
       </c>
-      <c r="E72" s="23" t="s">
-        <v>485</v>
-      </c>
-      <c r="F72" s="23" t="s">
-        <v>486</v>
-      </c>
       <c r="G72" s="23" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H72" s="23" t="s">
         <v>361</v>
@@ -6458,7 +6455,7 @@
         <v>92</v>
       </c>
       <c r="B73" s="23" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C73" s="23">
         <v>30</v>
@@ -6484,25 +6481,25 @@
         <v>93</v>
       </c>
       <c r="B74" s="23" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="C74" s="23" t="s">
+        <v>486</v>
+      </c>
+      <c r="D74" s="23" t="s">
+        <v>487</v>
+      </c>
+      <c r="E74" s="23" t="s">
         <v>488</v>
       </c>
-      <c r="D74" s="23" t="s">
-        <v>489</v>
-      </c>
-      <c r="E74" s="23" t="s">
-        <v>490</v>
-      </c>
       <c r="F74" s="23" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="G74" s="23" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H74" s="23" t="s">
-        <v>617</v>
+        <v>647</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="29.25" customHeight="1">
@@ -6510,25 +6507,25 @@
         <v>94</v>
       </c>
       <c r="B75" s="23" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="C75" s="28" t="s">
         <v>185</v>
       </c>
       <c r="D75" s="23" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="E75" s="23" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="F75" s="23" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="G75" s="23" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="H75" s="23" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="29.25" customHeight="1">
@@ -6536,25 +6533,25 @@
         <v>95</v>
       </c>
       <c r="B76" s="23" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="C76" s="23" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="D76" s="23" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="E76" s="23" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="F76" s="23" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G76" s="23" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H76" s="23" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="29.25" customHeight="1">
@@ -6562,25 +6559,25 @@
         <v>96</v>
       </c>
       <c r="B77" s="23" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C77" s="23" t="s">
+        <v>490</v>
+      </c>
+      <c r="D77" s="23" t="s">
+        <v>491</v>
+      </c>
+      <c r="E77" s="23" t="s">
         <v>492</v>
       </c>
-      <c r="D77" s="23" t="s">
+      <c r="F77" s="23" t="s">
         <v>493</v>
       </c>
-      <c r="E77" s="23" t="s">
-        <v>494</v>
-      </c>
-      <c r="F77" s="23" t="s">
-        <v>495</v>
-      </c>
       <c r="G77" s="23" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H77" s="23" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="29.25" customHeight="1">
@@ -6588,25 +6585,25 @@
         <v>97</v>
       </c>
       <c r="B78" s="23" t="s">
+        <v>495</v>
+      </c>
+      <c r="C78" s="23" t="s">
+        <v>496</v>
+      </c>
+      <c r="D78" s="23" t="s">
         <v>497</v>
       </c>
-      <c r="C78" s="23" t="s">
+      <c r="E78" s="23" t="s">
         <v>498</v>
       </c>
-      <c r="D78" s="23" t="s">
+      <c r="F78" s="23" t="s">
         <v>499</v>
       </c>
-      <c r="E78" s="23" t="s">
-        <v>500</v>
-      </c>
-      <c r="F78" s="23" t="s">
-        <v>501</v>
-      </c>
       <c r="G78" s="23" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H78" s="23" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="29.25" customHeight="1">
@@ -6614,25 +6611,25 @@
         <v>98</v>
       </c>
       <c r="B79" s="23" t="s">
+        <v>500</v>
+      </c>
+      <c r="C79" s="23" t="s">
+        <v>501</v>
+      </c>
+      <c r="D79" s="23" t="s">
         <v>502</v>
       </c>
-      <c r="C79" s="23" t="s">
+      <c r="E79" s="23" t="s">
         <v>503</v>
       </c>
-      <c r="D79" s="23" t="s">
+      <c r="F79" s="23" t="s">
+        <v>505</v>
+      </c>
+      <c r="G79" s="23" t="s">
         <v>504</v>
       </c>
-      <c r="E79" s="23" t="s">
-        <v>505</v>
-      </c>
-      <c r="F79" s="23" t="s">
-        <v>507</v>
-      </c>
-      <c r="G79" s="23" t="s">
-        <v>506</v>
-      </c>
       <c r="H79" s="23" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="29.25" customHeight="1">
@@ -6640,25 +6637,25 @@
         <v>99</v>
       </c>
       <c r="B80" s="23" t="s">
+        <v>506</v>
+      </c>
+      <c r="C80" s="23" t="s">
+        <v>507</v>
+      </c>
+      <c r="D80" s="23" t="s">
         <v>508</v>
       </c>
-      <c r="C80" s="23" t="s">
+      <c r="E80" s="23" t="s">
         <v>509</v>
       </c>
-      <c r="D80" s="23" t="s">
+      <c r="F80" s="23" t="s">
         <v>510</v>
       </c>
-      <c r="E80" s="23" t="s">
-        <v>511</v>
-      </c>
-      <c r="F80" s="23" t="s">
-        <v>512</v>
-      </c>
       <c r="G80" s="23" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H80" s="23" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="29.25" customHeight="1">
@@ -6666,25 +6663,25 @@
         <v>100</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="C81" s="23" t="s">
+        <v>608</v>
+      </c>
+      <c r="D81" s="23" t="s">
+        <v>618</v>
+      </c>
+      <c r="E81" s="23" t="s">
+        <v>619</v>
+      </c>
+      <c r="F81" s="23" t="s">
         <v>611</v>
       </c>
-      <c r="D81" s="23" t="s">
-        <v>622</v>
-      </c>
-      <c r="E81" s="23" t="s">
-        <v>623</v>
-      </c>
-      <c r="F81" s="23" t="s">
-        <v>614</v>
-      </c>
       <c r="G81" s="23" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="H81" s="23" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="29.25" customHeight="1">
@@ -6692,25 +6689,25 @@
         <v>101</v>
       </c>
       <c r="B82" s="23" t="s">
+        <v>511</v>
+      </c>
+      <c r="C82" s="23" t="s">
+        <v>512</v>
+      </c>
+      <c r="D82" s="23" t="s">
+        <v>505</v>
+      </c>
+      <c r="E82" s="23" t="s">
         <v>513</v>
       </c>
-      <c r="C82" s="23" t="s">
+      <c r="F82" s="23" t="s">
         <v>514</v>
-      </c>
-      <c r="D82" s="23" t="s">
-        <v>507</v>
-      </c>
-      <c r="E82" s="23" t="s">
-        <v>515</v>
-      </c>
-      <c r="F82" s="23" t="s">
-        <v>516</v>
       </c>
       <c r="G82" s="23" t="s">
         <v>372</v>
       </c>
       <c r="H82" s="23" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="29.25" customHeight="1">
@@ -6718,25 +6715,25 @@
         <v>102</v>
       </c>
       <c r="B83" s="23" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="C83" s="23" t="s">
+        <v>515</v>
+      </c>
+      <c r="D83" s="23" t="s">
+        <v>516</v>
+      </c>
+      <c r="E83" s="23" t="s">
         <v>517</v>
       </c>
-      <c r="D83" s="23" t="s">
+      <c r="F83" s="23" t="s">
         <v>518</v>
       </c>
-      <c r="E83" s="23" t="s">
-        <v>519</v>
-      </c>
-      <c r="F83" s="23" t="s">
-        <v>520</v>
-      </c>
       <c r="G83" s="23" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H83" s="23" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="29.25" customHeight="1">
@@ -6744,25 +6741,25 @@
         <v>103</v>
       </c>
       <c r="B84" s="23" t="s">
+        <v>519</v>
+      </c>
+      <c r="C84" s="23" t="s">
+        <v>520</v>
+      </c>
+      <c r="D84" s="23" t="s">
+        <v>524</v>
+      </c>
+      <c r="E84" s="23" t="s">
+        <v>522</v>
+      </c>
+      <c r="F84" s="23" t="s">
         <v>521</v>
       </c>
-      <c r="C84" s="23" t="s">
-        <v>522</v>
-      </c>
-      <c r="D84" s="23" t="s">
-        <v>526</v>
-      </c>
-      <c r="E84" s="23" t="s">
-        <v>524</v>
-      </c>
-      <c r="F84" s="23" t="s">
+      <c r="G84" s="23" t="s">
         <v>523</v>
       </c>
-      <c r="G84" s="23" t="s">
-        <v>525</v>
-      </c>
       <c r="H84" s="23" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="29.25" customHeight="1">
@@ -6770,25 +6767,25 @@
         <v>104</v>
       </c>
       <c r="B85" s="23" t="s">
+        <v>525</v>
+      </c>
+      <c r="C85" s="23" t="s">
+        <v>526</v>
+      </c>
+      <c r="D85" s="23" t="s">
         <v>527</v>
       </c>
-      <c r="C85" s="23" t="s">
+      <c r="E85" s="23" t="s">
         <v>528</v>
       </c>
-      <c r="D85" s="23" t="s">
+      <c r="F85" s="23" t="s">
         <v>529</v>
       </c>
-      <c r="E85" s="23" t="s">
-        <v>530</v>
-      </c>
-      <c r="F85" s="23" t="s">
-        <v>531</v>
-      </c>
       <c r="G85" s="23" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H85" s="23" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="29.25" customHeight="1">
@@ -6796,25 +6793,25 @@
         <v>105</v>
       </c>
       <c r="B86" s="23" t="s">
+        <v>530</v>
+      </c>
+      <c r="C86" s="23" t="s">
+        <v>531</v>
+      </c>
+      <c r="D86" s="23" t="s">
         <v>532</v>
       </c>
-      <c r="C86" s="23" t="s">
+      <c r="E86" s="23" t="s">
         <v>533</v>
       </c>
-      <c r="D86" s="23" t="s">
+      <c r="F86" s="23" t="s">
         <v>534</v>
       </c>
-      <c r="E86" s="23" t="s">
-        <v>535</v>
-      </c>
-      <c r="F86" s="23" t="s">
-        <v>536</v>
-      </c>
       <c r="G86" s="23" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H86" s="23" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="29.25" customHeight="1">
@@ -6822,25 +6819,25 @@
         <v>106</v>
       </c>
       <c r="B87" s="23" t="s">
+        <v>535</v>
+      </c>
+      <c r="C87" s="23" t="s">
+        <v>536</v>
+      </c>
+      <c r="D87" s="23" t="s">
         <v>537</v>
       </c>
-      <c r="C87" s="23" t="s">
+      <c r="E87" s="23" t="s">
         <v>538</v>
       </c>
-      <c r="D87" s="23" t="s">
+      <c r="F87" s="23" t="s">
         <v>539</v>
       </c>
-      <c r="E87" s="23" t="s">
-        <v>540</v>
-      </c>
-      <c r="F87" s="23" t="s">
-        <v>541</v>
-      </c>
       <c r="G87" s="23" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H87" s="23" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="29.25" customHeight="1">
@@ -6848,25 +6845,25 @@
         <v>107</v>
       </c>
       <c r="B88" s="23" t="s">
+        <v>540</v>
+      </c>
+      <c r="C88" s="23" t="s">
+        <v>544</v>
+      </c>
+      <c r="D88" s="23" t="s">
+        <v>541</v>
+      </c>
+      <c r="E88" s="23" t="s">
         <v>542</v>
       </c>
-      <c r="C88" s="23" t="s">
-        <v>546</v>
-      </c>
-      <c r="D88" s="23" t="s">
+      <c r="F88" s="23" t="s">
         <v>543</v>
-      </c>
-      <c r="E88" s="23" t="s">
-        <v>544</v>
-      </c>
-      <c r="F88" s="23" t="s">
-        <v>545</v>
       </c>
       <c r="G88" s="23" t="s">
         <v>377</v>
       </c>
       <c r="H88" s="23" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="29.25" customHeight="1">
@@ -6874,25 +6871,25 @@
         <v>108</v>
       </c>
       <c r="B89" s="23" t="s">
+        <v>545</v>
+      </c>
+      <c r="C89" s="23" t="s">
+        <v>546</v>
+      </c>
+      <c r="D89" s="23" t="s">
         <v>547</v>
       </c>
-      <c r="C89" s="23" t="s">
+      <c r="E89" s="23" t="s">
         <v>548</v>
       </c>
-      <c r="D89" s="23" t="s">
+      <c r="F89" s="23" t="s">
         <v>549</v>
       </c>
-      <c r="E89" s="23" t="s">
-        <v>550</v>
-      </c>
-      <c r="F89" s="23" t="s">
-        <v>551</v>
-      </c>
       <c r="G89" s="23" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H89" s="23" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="29.25" customHeight="1">
@@ -6900,25 +6897,25 @@
         <v>109</v>
       </c>
       <c r="B90" s="23" t="s">
+        <v>550</v>
+      </c>
+      <c r="C90" s="23" t="s">
+        <v>551</v>
+      </c>
+      <c r="D90" s="23" t="s">
         <v>552</v>
       </c>
-      <c r="C90" s="23" t="s">
+      <c r="E90" s="23" t="s">
+        <v>554</v>
+      </c>
+      <c r="F90" s="23" t="s">
+        <v>555</v>
+      </c>
+      <c r="G90" s="23" t="s">
+        <v>623</v>
+      </c>
+      <c r="H90" s="23" t="s">
         <v>553</v>
-      </c>
-      <c r="D90" s="23" t="s">
-        <v>554</v>
-      </c>
-      <c r="E90" s="23" t="s">
-        <v>556</v>
-      </c>
-      <c r="F90" s="23" t="s">
-        <v>557</v>
-      </c>
-      <c r="G90" s="23" t="s">
-        <v>627</v>
-      </c>
-      <c r="H90" s="23" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="29.25" customHeight="1">
@@ -6926,7 +6923,7 @@
         <v>110</v>
       </c>
       <c r="B91" s="23" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C91" s="23">
         <v>12</v>
@@ -6941,10 +6938,10 @@
         <v>18</v>
       </c>
       <c r="G91" s="23" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H91" s="23" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="29.25" customHeight="1">
@@ -6952,7 +6949,7 @@
         <v>111</v>
       </c>
       <c r="B92" s="23" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C92" s="23">
         <v>100</v>
@@ -6970,7 +6967,7 @@
         <v>377</v>
       </c>
       <c r="H92" s="23" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="29.25" customHeight="1">
@@ -6978,25 +6975,25 @@
         <v>112</v>
       </c>
       <c r="B93" s="23" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C93" s="23" t="s">
+        <v>558</v>
+      </c>
+      <c r="D93" s="23" t="s">
+        <v>559</v>
+      </c>
+      <c r="E93" s="23" t="s">
         <v>560</v>
       </c>
-      <c r="D93" s="23" t="s">
+      <c r="F93" s="23" t="s">
         <v>561</v>
       </c>
-      <c r="E93" s="23" t="s">
-        <v>562</v>
-      </c>
-      <c r="F93" s="23" t="s">
-        <v>563</v>
-      </c>
       <c r="G93" s="23" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H93" s="23" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="29.25" customHeight="1">
@@ -7004,7 +7001,7 @@
         <v>113</v>
       </c>
       <c r="B94" s="23" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C94" s="23">
         <v>525</v>
@@ -7019,10 +7016,10 @@
         <v>855</v>
       </c>
       <c r="G94" s="23" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="H94" s="23" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="29.25" customHeight="1">
@@ -7030,25 +7027,25 @@
         <v>114</v>
       </c>
       <c r="B95" s="23" t="s">
+        <v>564</v>
+      </c>
+      <c r="C95" s="23" t="s">
+        <v>565</v>
+      </c>
+      <c r="D95" s="23" t="s">
+        <v>568</v>
+      </c>
+      <c r="E95" s="23" t="s">
         <v>566</v>
       </c>
-      <c r="C95" s="23" t="s">
+      <c r="F95" s="23" t="s">
         <v>567</v>
       </c>
-      <c r="D95" s="23" t="s">
-        <v>570</v>
-      </c>
-      <c r="E95" s="23" t="s">
-        <v>568</v>
-      </c>
-      <c r="F95" s="23" t="s">
-        <v>569</v>
-      </c>
       <c r="G95" s="23" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H95" s="23" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="29.25" customHeight="1">
@@ -7056,7 +7053,7 @@
         <v>115</v>
       </c>
       <c r="B96" s="23" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C96" s="23">
         <v>0.61799999999999999</v>
@@ -7071,10 +7068,10 @@
         <v>0.79800000000000004</v>
       </c>
       <c r="G96" s="23" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H96" s="23" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="29.25" customHeight="1">
@@ -7082,25 +7079,25 @@
         <v>116</v>
       </c>
       <c r="B97" s="23" t="s">
+        <v>570</v>
+      </c>
+      <c r="C97" s="23" t="s">
+        <v>571</v>
+      </c>
+      <c r="D97" s="23" t="s">
+        <v>574</v>
+      </c>
+      <c r="E97" s="23" t="s">
         <v>572</v>
       </c>
-      <c r="C97" s="23" t="s">
+      <c r="F97" s="23" t="s">
         <v>573</v>
       </c>
-      <c r="D97" s="23" t="s">
-        <v>576</v>
-      </c>
-      <c r="E97" s="23" t="s">
-        <v>574</v>
-      </c>
-      <c r="F97" s="23" t="s">
-        <v>575</v>
-      </c>
       <c r="G97" s="23" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H97" s="23" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="29.25" customHeight="1">
@@ -7108,7 +7105,7 @@
         <v>117</v>
       </c>
       <c r="B98" s="23" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C98" s="23">
         <v>12</v>
@@ -7126,7 +7123,7 @@
         <v>377</v>
       </c>
       <c r="H98" s="23" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="29.25" customHeight="1">
@@ -7134,25 +7131,25 @@
         <v>118</v>
       </c>
       <c r="B99" s="23" t="s">
+        <v>576</v>
+      </c>
+      <c r="C99" s="23" t="s">
+        <v>577</v>
+      </c>
+      <c r="D99" s="23" t="s">
         <v>578</v>
       </c>
-      <c r="C99" s="23" t="s">
+      <c r="E99" s="23" t="s">
         <v>579</v>
       </c>
-      <c r="D99" s="23" t="s">
+      <c r="F99" s="23" t="s">
         <v>580</v>
       </c>
-      <c r="E99" s="23" t="s">
-        <v>581</v>
-      </c>
-      <c r="F99" s="23" t="s">
-        <v>582</v>
-      </c>
       <c r="G99" s="23" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="H99" s="23" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="29.25" customHeight="1">
@@ -7160,7 +7157,7 @@
         <v>119</v>
       </c>
       <c r="B100" s="23" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C100" s="23">
         <v>3</v>
@@ -7175,10 +7172,10 @@
         <v>6</v>
       </c>
       <c r="G100" s="23" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H100" s="23" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="29.25" customHeight="1">
@@ -7186,25 +7183,25 @@
         <v>120</v>
       </c>
       <c r="B101" s="23" t="s">
+        <v>585</v>
+      </c>
+      <c r="C101" s="23" t="s">
+        <v>582</v>
+      </c>
+      <c r="D101" s="23" t="s">
+        <v>583</v>
+      </c>
+      <c r="E101" s="23" t="s">
+        <v>584</v>
+      </c>
+      <c r="F101" s="23" t="s">
+        <v>586</v>
+      </c>
+      <c r="G101" s="23" t="s">
         <v>587</v>
       </c>
-      <c r="C101" s="23" t="s">
-        <v>584</v>
-      </c>
-      <c r="D101" s="23" t="s">
-        <v>585</v>
-      </c>
-      <c r="E101" s="23" t="s">
-        <v>586</v>
-      </c>
-      <c r="F101" s="23" t="s">
-        <v>588</v>
-      </c>
-      <c r="G101" s="23" t="s">
-        <v>589</v>
-      </c>
       <c r="H101" s="23" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="29.25" customHeight="1">
@@ -7212,7 +7209,7 @@
         <v>121</v>
       </c>
       <c r="B102" s="23" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C102" s="23">
         <v>3</v>
@@ -7227,10 +7224,10 @@
         <v>9</v>
       </c>
       <c r="G102" s="23" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H102" s="23" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/builtin/趣味冷知识.xlsx
+++ b/xlsx/builtin/趣味冷知识.xlsx
@@ -2308,10 +2308,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中国四大发明中的造纸术是由东汉哪位著名人物发明的？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>蔡伦</t>
   </si>
   <si>
@@ -2404,10 +2400,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>汉字中只有一笔的字有几个？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>如题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2504,10 +2496,6 @@
   </si>
   <si>
     <t>锤丸最早源于宋代，元代时期大受上流社会欢迎，在明代成为流行运动。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指南针的始祖——司南 活字印刷术——毕升 造纸术————蔡伦 火药————葛洪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2627,6 +2615,18 @@
   </si>
   <si>
     <t>UFO的意思是？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指南针——司南 活字印刷术——毕升 造纸术————蔡伦 火药————葛洪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造纸术是谁发明的？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉字中只有一笔的字，除了亅、丿、乚、丨、丶、乛，还有几个？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4276,10 +4276,10 @@
         <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="G1" s="31" t="s">
         <v>638</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>641</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -4303,10 +4303,10 @@
         <v>21</v>
       </c>
       <c r="F2" s="29" t="s">
+        <v>636</v>
+      </c>
+      <c r="G2" s="32" t="s">
         <v>639</v>
-      </c>
-      <c r="G2" s="32" t="s">
-        <v>642</v>
       </c>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
@@ -4314,25 +4314,25 @@
     </row>
     <row r="3" spans="1:259" ht="165" customHeight="1">
       <c r="A3" s="12" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C3" s="14">
         <v>0</v>
       </c>
       <c r="D3" s="15" t="s">
+        <v>634</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>642</v>
+      </c>
+      <c r="F3" s="30" t="s">
         <v>637</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>645</v>
-      </c>
-      <c r="F3" s="30" t="s">
+      <c r="G3" s="32" t="s">
         <v>640</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>643</v>
       </c>
       <c r="H3" s="16" t="s">
         <v>22</v>
@@ -4562,8 +4562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="H102" sqref="H102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="29.25" customHeight="1"/>
@@ -4679,7 +4679,7 @@
         <v>153</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="29.25" customHeight="1">
@@ -4705,7 +4705,7 @@
         <v>132</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="29.25" customHeight="1">
@@ -4895,7 +4895,7 @@
         <v>32</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>185</v>
@@ -5025,7 +5025,7 @@
         <v>37</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C18" s="23" t="s">
         <v>214</v>
@@ -5040,7 +5040,7 @@
         <v>217</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="H18" s="23" t="s">
         <v>218</v>
@@ -5077,7 +5077,7 @@
         <v>39</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="C20" s="24" t="s">
         <v>254</v>
@@ -5092,7 +5092,7 @@
         <v>257</v>
       </c>
       <c r="G20" s="23" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="H20" s="23" t="s">
         <v>301</v>
@@ -5597,7 +5597,7 @@
         <v>59</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C40" s="23" t="s">
         <v>353</v>
@@ -5675,7 +5675,7 @@
         <v>62</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C43" s="23" t="s">
         <v>368</v>
@@ -5701,7 +5701,7 @@
         <v>63</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C44" s="23" t="s">
         <v>373</v>
@@ -5779,16 +5779,16 @@
         <v>66</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C47" s="23" t="s">
         <v>388</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="E47" s="23" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="F47" s="23" t="s">
         <v>389</v>
@@ -5805,7 +5805,7 @@
         <v>67</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C48" s="23" t="s">
         <v>390</v>
@@ -5831,7 +5831,7 @@
         <v>68</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C49" s="23" t="s">
         <v>395</v>
@@ -5843,7 +5843,7 @@
         <v>397</v>
       </c>
       <c r="F49" s="23" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="G49" s="23" t="s">
         <v>398</v>
@@ -5883,19 +5883,19 @@
         <v>70</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C51" s="23" t="s">
         <v>401</v>
       </c>
       <c r="D51" s="23" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E51" s="23" t="s">
         <v>402</v>
       </c>
       <c r="F51" s="23" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G51" s="23" t="s">
         <v>377</v>
@@ -5935,7 +5935,7 @@
         <v>72</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C53" s="23" t="s">
         <v>408</v>
@@ -5961,7 +5961,7 @@
         <v>73</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C54" s="23">
         <v>187</v>
@@ -6039,7 +6039,7 @@
         <v>76</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C57" s="23">
         <v>6</v>
@@ -6091,7 +6091,7 @@
         <v>78</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C59" s="23" t="s">
         <v>429</v>
@@ -6221,7 +6221,7 @@
         <v>83</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C64" s="23">
         <v>1952</v>
@@ -6273,7 +6273,7 @@
         <v>85</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C66" s="23" t="s">
         <v>425</v>
@@ -6325,19 +6325,19 @@
         <v>87</v>
       </c>
       <c r="B68" s="23" t="s">
+        <v>605</v>
+      </c>
+      <c r="C68" s="23" t="s">
+        <v>606</v>
+      </c>
+      <c r="D68" s="23" t="s">
         <v>607</v>
       </c>
-      <c r="C68" s="23" t="s">
+      <c r="E68" s="23" t="s">
         <v>608</v>
       </c>
-      <c r="D68" s="23" t="s">
+      <c r="F68" s="23" t="s">
         <v>609</v>
-      </c>
-      <c r="E68" s="23" t="s">
-        <v>610</v>
-      </c>
-      <c r="F68" s="23" t="s">
-        <v>611</v>
       </c>
       <c r="G68" s="23" t="s">
         <v>377</v>
@@ -6409,10 +6409,10 @@
         <v>479</v>
       </c>
       <c r="D71" s="23" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="E71" s="23" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="F71" s="23" t="s">
         <v>480</v>
@@ -6432,7 +6432,7 @@
         <v>481</v>
       </c>
       <c r="C72" s="23" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D72" s="23" t="s">
         <v>482</v>
@@ -6481,7 +6481,7 @@
         <v>93</v>
       </c>
       <c r="B74" s="23" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="C74" s="23" t="s">
         <v>486</v>
@@ -6493,13 +6493,13 @@
         <v>488</v>
       </c>
       <c r="F74" s="23" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="G74" s="23" t="s">
         <v>398</v>
       </c>
       <c r="H74" s="23" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="29.25" customHeight="1">
@@ -6507,25 +6507,25 @@
         <v>94</v>
       </c>
       <c r="B75" s="23" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C75" s="28" t="s">
         <v>185</v>
       </c>
       <c r="D75" s="23" t="s">
+        <v>622</v>
+      </c>
+      <c r="E75" s="23" t="s">
+        <v>623</v>
+      </c>
+      <c r="F75" s="23" t="s">
+        <v>624</v>
+      </c>
+      <c r="G75" s="23" t="s">
         <v>625</v>
       </c>
-      <c r="E75" s="23" t="s">
-        <v>626</v>
-      </c>
-      <c r="F75" s="23" t="s">
-        <v>627</v>
-      </c>
-      <c r="G75" s="23" t="s">
-        <v>628</v>
-      </c>
       <c r="H75" s="23" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="29.25" customHeight="1">
@@ -6533,16 +6533,16 @@
         <v>95</v>
       </c>
       <c r="B76" s="23" t="s">
+        <v>612</v>
+      </c>
+      <c r="C76" s="23" t="s">
+        <v>613</v>
+      </c>
+      <c r="D76" s="23" t="s">
         <v>614</v>
       </c>
-      <c r="C76" s="23" t="s">
+      <c r="E76" s="23" t="s">
         <v>615</v>
-      </c>
-      <c r="D76" s="23" t="s">
-        <v>616</v>
-      </c>
-      <c r="E76" s="23" t="s">
-        <v>617</v>
       </c>
       <c r="F76" s="23" t="s">
         <v>489</v>
@@ -6551,7 +6551,7 @@
         <v>398</v>
       </c>
       <c r="H76" s="23" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="29.25" customHeight="1">
@@ -6577,7 +6577,7 @@
         <v>394</v>
       </c>
       <c r="H77" s="23" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="29.25" customHeight="1">
@@ -6603,7 +6603,7 @@
         <v>398</v>
       </c>
       <c r="H78" s="23" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="29.25" customHeight="1">
@@ -6629,7 +6629,7 @@
         <v>504</v>
       </c>
       <c r="H79" s="23" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="29.25" customHeight="1">
@@ -6655,7 +6655,7 @@
         <v>472</v>
       </c>
       <c r="H80" s="23" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="29.25" customHeight="1">
@@ -6663,25 +6663,25 @@
         <v>100</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="C81" s="23" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D81" s="23" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E81" s="23" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F81" s="23" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="G81" s="23" t="s">
         <v>504</v>
       </c>
       <c r="H81" s="23" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="29.25" customHeight="1">
@@ -6707,7 +6707,7 @@
         <v>372</v>
       </c>
       <c r="H82" s="23" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="29.25" customHeight="1">
@@ -6715,7 +6715,7 @@
         <v>102</v>
       </c>
       <c r="B83" s="23" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C83" s="23" t="s">
         <v>515</v>
@@ -6733,7 +6733,7 @@
         <v>398</v>
       </c>
       <c r="H83" s="23" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="29.25" customHeight="1">
@@ -6759,7 +6759,7 @@
         <v>523</v>
       </c>
       <c r="H84" s="23" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="29.25" customHeight="1">
@@ -6785,7 +6785,7 @@
         <v>394</v>
       </c>
       <c r="H85" s="23" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="29.25" customHeight="1">
@@ -6811,7 +6811,7 @@
         <v>394</v>
       </c>
       <c r="H86" s="23" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="29.25" customHeight="1">
@@ -6837,7 +6837,7 @@
         <v>394</v>
       </c>
       <c r="H87" s="23" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="29.25" customHeight="1">
@@ -6863,7 +6863,7 @@
         <v>377</v>
       </c>
       <c r="H88" s="23" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="29.25" customHeight="1">
@@ -6889,7 +6889,7 @@
         <v>398</v>
       </c>
       <c r="H89" s="23" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="29.25" customHeight="1">
@@ -6912,7 +6912,7 @@
         <v>555</v>
       </c>
       <c r="G90" s="23" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="H90" s="23" t="s">
         <v>553</v>
@@ -6941,7 +6941,7 @@
         <v>398</v>
       </c>
       <c r="H91" s="23" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="29.25" customHeight="1">
@@ -6967,7 +6967,7 @@
         <v>377</v>
       </c>
       <c r="H92" s="23" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="29.25" customHeight="1">
@@ -6993,7 +6993,7 @@
         <v>394</v>
       </c>
       <c r="H93" s="23" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="29.25" customHeight="1">
@@ -7019,7 +7019,7 @@
         <v>504</v>
       </c>
       <c r="H94" s="23" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="29.25" customHeight="1">
@@ -7027,25 +7027,25 @@
         <v>114</v>
       </c>
       <c r="B95" s="23" t="s">
+        <v>649</v>
+      </c>
+      <c r="C95" s="23" t="s">
         <v>564</v>
       </c>
-      <c r="C95" s="23" t="s">
+      <c r="D95" s="23" t="s">
+        <v>567</v>
+      </c>
+      <c r="E95" s="23" t="s">
         <v>565</v>
       </c>
-      <c r="D95" s="23" t="s">
-        <v>568</v>
-      </c>
-      <c r="E95" s="23" t="s">
+      <c r="F95" s="23" t="s">
         <v>566</v>
-      </c>
-      <c r="F95" s="23" t="s">
-        <v>567</v>
       </c>
       <c r="G95" s="23" t="s">
         <v>472</v>
       </c>
       <c r="H95" s="23" t="s">
-        <v>622</v>
+        <v>648</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="29.25" customHeight="1">
@@ -7053,7 +7053,7 @@
         <v>115</v>
       </c>
       <c r="B96" s="23" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C96" s="23">
         <v>0.61799999999999999</v>
@@ -7071,7 +7071,7 @@
         <v>394</v>
       </c>
       <c r="H96" s="23" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="29.25" customHeight="1">
@@ -7079,25 +7079,25 @@
         <v>116</v>
       </c>
       <c r="B97" s="23" t="s">
+        <v>569</v>
+      </c>
+      <c r="C97" s="23" t="s">
         <v>570</v>
       </c>
-      <c r="C97" s="23" t="s">
+      <c r="D97" s="23" t="s">
+        <v>573</v>
+      </c>
+      <c r="E97" s="23" t="s">
         <v>571</v>
       </c>
-      <c r="D97" s="23" t="s">
-        <v>574</v>
-      </c>
-      <c r="E97" s="23" t="s">
+      <c r="F97" s="23" t="s">
         <v>572</v>
-      </c>
-      <c r="F97" s="23" t="s">
-        <v>573</v>
       </c>
       <c r="G97" s="23" t="s">
         <v>453</v>
       </c>
       <c r="H97" s="23" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="29.25" customHeight="1">
@@ -7105,7 +7105,7 @@
         <v>117</v>
       </c>
       <c r="B98" s="23" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C98" s="23">
         <v>12</v>
@@ -7123,7 +7123,7 @@
         <v>377</v>
       </c>
       <c r="H98" s="23" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="29.25" customHeight="1">
@@ -7131,25 +7131,25 @@
         <v>118</v>
       </c>
       <c r="B99" s="23" t="s">
+        <v>575</v>
+      </c>
+      <c r="C99" s="23" t="s">
         <v>576</v>
       </c>
-      <c r="C99" s="23" t="s">
+      <c r="D99" s="23" t="s">
         <v>577</v>
       </c>
-      <c r="D99" s="23" t="s">
+      <c r="E99" s="23" t="s">
         <v>578</v>
       </c>
-      <c r="E99" s="23" t="s">
+      <c r="F99" s="23" t="s">
         <v>579</v>
-      </c>
-      <c r="F99" s="23" t="s">
-        <v>580</v>
       </c>
       <c r="G99" s="23" t="s">
         <v>523</v>
       </c>
       <c r="H99" s="23" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="29.25" customHeight="1">
@@ -7157,7 +7157,7 @@
         <v>119</v>
       </c>
       <c r="B100" s="23" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C100" s="23">
         <v>3</v>
@@ -7175,7 +7175,7 @@
         <v>394</v>
       </c>
       <c r="H100" s="23" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="29.25" customHeight="1">
@@ -7183,25 +7183,25 @@
         <v>120</v>
       </c>
       <c r="B101" s="23" t="s">
+        <v>584</v>
+      </c>
+      <c r="C101" s="23" t="s">
+        <v>581</v>
+      </c>
+      <c r="D101" s="23" t="s">
+        <v>582</v>
+      </c>
+      <c r="E101" s="23" t="s">
+        <v>583</v>
+      </c>
+      <c r="F101" s="23" t="s">
         <v>585</v>
       </c>
-      <c r="C101" s="23" t="s">
-        <v>582</v>
-      </c>
-      <c r="D101" s="23" t="s">
-        <v>583</v>
-      </c>
-      <c r="E101" s="23" t="s">
-        <v>584</v>
-      </c>
-      <c r="F101" s="23" t="s">
+      <c r="G101" s="23" t="s">
         <v>586</v>
       </c>
-      <c r="G101" s="23" t="s">
-        <v>587</v>
-      </c>
       <c r="H101" s="23" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="29.25" customHeight="1">
@@ -7209,7 +7209,7 @@
         <v>121</v>
       </c>
       <c r="B102" s="23" t="s">
-        <v>589</v>
+        <v>650</v>
       </c>
       <c r="C102" s="23">
         <v>3</v>
@@ -7227,7 +7227,7 @@
         <v>394</v>
       </c>
       <c r="H102" s="23" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
   </sheetData>
